--- a/uploads/PRODUCTIVITY-_1_.xlsx
+++ b/uploads/PRODUCTIVITY-_1_.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\psing\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\psing\Projects\gradernator\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02E32DF3-D1CC-4D9A-9BE7-9CDDCEB7A937}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D00F7345-006B-4E7F-912D-14DB2EE38724}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1776" yWindow="1776" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -467,14 +467,12 @@
   <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.77734375" customWidth="1"/>
-    <col min="2" max="2" width="18.109375" customWidth="1"/>
-    <col min="3" max="3" width="25.33203125" customWidth="1"/>
+    <col min="1" max="1" width="15.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -913,7 +911,7 @@
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
-  <autoFilter ref="A1:D1" xr:uid="{078647EF-AA4A-4B3D-88F3-5EFD5CCBFC5E}">
+  <autoFilter ref="A1:D1" xr:uid="{16C36111-CB19-4DEC-8B32-26D73878FF72}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D31">
       <sortCondition ref="A1"/>
     </sortState>

--- a/uploads/PRODUCTIVITY-_1_.xlsx
+++ b/uploads/PRODUCTIVITY-_1_.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\psing\Projects\gradernator\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\psing\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D00F7345-006B-4E7F-912D-14DB2EE38724}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02E32DF3-D1CC-4D9A-9BE7-9CDDCEB7A937}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1776" yWindow="1776" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -467,12 +467,14 @@
   <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.5546875" customWidth="1"/>
+    <col min="1" max="1" width="17.77734375" customWidth="1"/>
+    <col min="2" max="2" width="18.109375" customWidth="1"/>
+    <col min="3" max="3" width="25.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -911,7 +913,7 @@
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
-  <autoFilter ref="A1:D1" xr:uid="{16C36111-CB19-4DEC-8B32-26D73878FF72}">
+  <autoFilter ref="A1:D1" xr:uid="{078647EF-AA4A-4B3D-88F3-5EFD5CCBFC5E}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D31">
       <sortCondition ref="A1"/>
     </sortState>
